--- a/Hiwi/Christ_DAO/cluster_output_new.xlsx
+++ b/Hiwi/Christ_DAO/cluster_output_new.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elianatschang/Desktop/Hiwi/Christ_DAO/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5B3BF-8E3F-E043-B8DA-94552552DEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="30320" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Clusters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -433,12 +427,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -446,45 +440,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -514,38 +480,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,7 +537,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,27 +569,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,24 +603,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -864,18 +778,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W60" sqref="W60"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="22" max="22" width="9" style="4"/>
-    <col min="25" max="25" width="9" style="4"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
@@ -938,7 +846,7 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
@@ -947,7 +855,7 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -1018,16 +926,16 @@
       <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2">
         <v>4</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2" t="s">
@@ -1098,16 +1006,16 @@
       <c r="U3" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>1</v>
       </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>4</v>
       </c>
       <c r="Z3" t="s">
@@ -1178,16 +1086,16 @@
       <c r="U4" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>1</v>
       </c>
-      <c r="X4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>4</v>
       </c>
       <c r="Z4" t="s">
@@ -1258,16 +1166,16 @@
       <c r="U5" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5">
         <v>4</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5" t="s">
@@ -1338,16 +1246,16 @@
       <c r="U6" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6">
         <v>4</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6" t="s">
@@ -1418,16 +1326,16 @@
       <c r="U7" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>2</v>
       </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <v>4</v>
       </c>
       <c r="Z7" t="s">
@@ -1498,16 +1406,16 @@
       <c r="U8" t="s">
         <v>32</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8">
         <v>1</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8">
         <v>-1</v>
       </c>
-      <c r="X8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="6">
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
         <v>2</v>
       </c>
       <c r="Z8" t="s">
@@ -1578,16 +1486,16 @@
       <c r="U9" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9">
         <v>1</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y9">
         <v>1</v>
       </c>
       <c r="Z9" t="s">
@@ -1658,16 +1566,16 @@
       <c r="U10" t="s">
         <v>32</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10">
         <v>1</v>
       </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="6">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
         <v>2</v>
       </c>
       <c r="Z10" t="s">
@@ -1738,16 +1646,16 @@
       <c r="U11" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11">
         <v>1</v>
       </c>
-      <c r="W11" s="7">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="6">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
         <v>2</v>
       </c>
       <c r="Z11" t="s">
@@ -1818,16 +1726,16 @@
       <c r="U12" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12">
         <v>1</v>
       </c>
-      <c r="W12" s="7">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="6">
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12">
         <v>2</v>
       </c>
       <c r="Z12" t="s">
@@ -1898,16 +1806,16 @@
       <c r="U13" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13">
         <v>1</v>
       </c>
-      <c r="W13" s="7">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="6">
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
         <v>2</v>
       </c>
       <c r="Z13" t="s">
@@ -1978,16 +1886,16 @@
       <c r="U14" t="s">
         <v>32</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14">
         <v>1</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14">
         <v>-1</v>
       </c>
-      <c r="X14" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="6">
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
         <v>2</v>
       </c>
       <c r="Z14" t="s">
@@ -2058,16 +1966,16 @@
       <c r="U15" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15">
         <v>2</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y15">
         <v>1</v>
       </c>
       <c r="Z15" t="s">
@@ -2138,16 +2046,16 @@
       <c r="U16" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16">
         <v>3</v>
       </c>
       <c r="W16">
         <v>3</v>
       </c>
       <c r="X16">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y16">
         <v>3</v>
       </c>
       <c r="Z16" t="s">
@@ -2218,16 +2126,16 @@
       <c r="U17" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17">
         <v>3</v>
       </c>
       <c r="W17">
         <v>3</v>
       </c>
       <c r="X17">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y17">
         <v>3</v>
       </c>
       <c r="Z17" t="s">
@@ -2298,16 +2206,16 @@
       <c r="U18" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18">
         <v>3</v>
       </c>
       <c r="W18">
         <v>3</v>
       </c>
       <c r="X18">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y18">
         <v>3</v>
       </c>
       <c r="Z18" t="s">
@@ -2378,7 +2286,7 @@
       <c r="U19" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
@@ -2387,7 +2295,7 @@
       <c r="X19">
         <v>0</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19">
         <v>4</v>
       </c>
       <c r="Z19" t="s">
@@ -2458,16 +2366,16 @@
       <c r="U20" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20">
         <v>2</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <v>1</v>
       </c>
       <c r="Z20" t="s">
@@ -2538,16 +2446,16 @@
       <c r="U21" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <v>1</v>
       </c>
       <c r="Z21" t="s">
@@ -2618,16 +2526,16 @@
       <c r="U22" t="s">
         <v>32</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22">
         <v>1</v>
       </c>
-      <c r="W22" s="7">
-        <v>0</v>
-      </c>
-      <c r="X22" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="6">
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
         <v>2</v>
       </c>
       <c r="Z22" t="s">
@@ -2698,16 +2606,16 @@
       <c r="U23" t="s">
         <v>32</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23">
         <v>1</v>
       </c>
-      <c r="W23" s="7">
-        <v>0</v>
-      </c>
-      <c r="X23" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="6">
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
         <v>2</v>
       </c>
       <c r="Z23" t="s">
@@ -2778,16 +2686,16 @@
       <c r="U24" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24">
         <v>1</v>
       </c>
-      <c r="W24" s="7">
-        <v>0</v>
-      </c>
-      <c r="X24" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="6">
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
         <v>2</v>
       </c>
       <c r="Z24" t="s">
@@ -2858,16 +2766,16 @@
       <c r="U25" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25">
         <v>2</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>2</v>
-      </c>
-      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25" t="s">
@@ -2938,7 +2846,7 @@
       <c r="U26" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26">
         <v>2</v>
       </c>
       <c r="W26">
@@ -2947,7 +2855,7 @@
       <c r="X26">
         <v>2</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y26">
         <v>1</v>
       </c>
       <c r="Z26" t="s">
@@ -3018,16 +2926,16 @@
       <c r="U27" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="5">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>-1</v>
       </c>
-      <c r="X27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="5">
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <v>4</v>
       </c>
       <c r="Z27" t="s">
@@ -3098,16 +3006,16 @@
       <c r="U28" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="5">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>1</v>
       </c>
-      <c r="X28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="5">
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <v>4</v>
       </c>
       <c r="Z28" t="s">
@@ -3178,16 +3086,16 @@
       <c r="U29" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="5">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>1</v>
       </c>
-      <c r="X29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="5">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <v>4</v>
       </c>
       <c r="Z29" t="s">
@@ -3258,16 +3166,16 @@
       <c r="U30" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="4">
+      <c r="V30">
         <v>2</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y30">
         <v>1</v>
       </c>
       <c r="Z30" t="s">
@@ -3338,16 +3246,16 @@
       <c r="U31" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="4">
+      <c r="V31">
         <v>2</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>2</v>
-      </c>
-      <c r="Y31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <v>1</v>
       </c>
       <c r="Z31" t="s">
@@ -3418,16 +3326,16 @@
       <c r="U32" t="s">
         <v>32</v>
       </c>
-      <c r="V32" s="4">
+      <c r="V32">
         <v>4</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>3</v>
-      </c>
-      <c r="Y32" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32" t="s">
@@ -3498,16 +3406,16 @@
       <c r="U33" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="4">
+      <c r="V33">
         <v>2</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33" t="s">
@@ -3578,7 +3486,7 @@
       <c r="U34" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="4">
+      <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
@@ -3587,7 +3495,7 @@
       <c r="X34">
         <v>0</v>
       </c>
-      <c r="Y34" s="4">
+      <c r="Y34">
         <v>1</v>
       </c>
       <c r="Z34" t="s">
@@ -3658,16 +3566,16 @@
       <c r="U35" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="4">
+      <c r="V35">
         <v>2</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y35">
         <v>1</v>
       </c>
       <c r="Z35" t="s">
@@ -3738,16 +3646,16 @@
       <c r="U36" t="s">
         <v>32</v>
       </c>
-      <c r="V36" s="4">
+      <c r="V36">
         <v>4</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>3</v>
-      </c>
-      <c r="Y36" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36" t="s">
@@ -3818,16 +3726,16 @@
       <c r="U37" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="4">
+      <c r="V37">
         <v>2</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>2</v>
-      </c>
-      <c r="Y37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <v>1</v>
       </c>
       <c r="Z37" t="s">
@@ -3898,16 +3806,16 @@
       <c r="U38" t="s">
         <v>32</v>
       </c>
-      <c r="V38" s="4">
+      <c r="V38">
         <v>4</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>2</v>
-      </c>
-      <c r="Y38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38" t="s">
@@ -3978,16 +3886,16 @@
       <c r="U39" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="4">
+      <c r="V39">
         <v>2</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>4</v>
-      </c>
-      <c r="Y39" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y39">
         <v>1</v>
       </c>
       <c r="Z39" t="s">
@@ -4058,16 +3966,16 @@
       <c r="U40" t="s">
         <v>32</v>
       </c>
-      <c r="V40" s="4">
+      <c r="V40">
         <v>4</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>3</v>
-      </c>
-      <c r="Y40" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40" t="s">
@@ -4138,7 +4046,7 @@
       <c r="U41" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="4">
+      <c r="V41">
         <v>2</v>
       </c>
       <c r="W41">
@@ -4147,7 +4055,7 @@
       <c r="X41">
         <v>2</v>
       </c>
-      <c r="Y41" s="4">
+      <c r="Y41">
         <v>1</v>
       </c>
       <c r="Z41" t="s">
@@ -4218,16 +4126,16 @@
       <c r="U42" t="s">
         <v>32</v>
       </c>
-      <c r="V42" s="4">
+      <c r="V42">
         <v>4</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42">
-        <v>3</v>
-      </c>
-      <c r="Y42" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y42">
         <v>0</v>
       </c>
       <c r="Z42" t="s">
@@ -4298,16 +4206,16 @@
       <c r="U43" t="s">
         <v>32</v>
       </c>
-      <c r="V43" s="4">
+      <c r="V43">
         <v>4</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43">
-        <v>3</v>
-      </c>
-      <c r="Y43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y43">
         <v>0</v>
       </c>
       <c r="Z43" t="s">
@@ -4378,16 +4286,16 @@
       <c r="U44" t="s">
         <v>32</v>
       </c>
-      <c r="V44" s="4">
+      <c r="V44">
         <v>4</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44">
-        <v>3</v>
-      </c>
-      <c r="Y44" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y44">
         <v>0</v>
       </c>
       <c r="Z44" t="s">
@@ -4458,16 +4366,16 @@
       <c r="U45" t="s">
         <v>32</v>
       </c>
-      <c r="V45" s="4">
+      <c r="V45">
         <v>4</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>3</v>
-      </c>
-      <c r="Y45" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45" t="s">
@@ -4538,16 +4446,16 @@
       <c r="U46" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="4">
+      <c r="V46">
         <v>2</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y46">
         <v>1</v>
       </c>
       <c r="Z46" t="s">
@@ -4618,16 +4526,16 @@
       <c r="U47" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="4">
+      <c r="V47">
         <v>2</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47">
-        <v>2</v>
-      </c>
-      <c r="Y47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y47">
         <v>1</v>
       </c>
       <c r="Z47" t="s">
@@ -4698,16 +4606,16 @@
       <c r="U48" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="4">
+      <c r="V48">
         <v>2</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48">
-        <v>2</v>
-      </c>
-      <c r="Y48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y48">
         <v>1</v>
       </c>
       <c r="Z48" t="s">
@@ -4778,7 +4686,7 @@
       <c r="U49" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="4">
+      <c r="V49">
         <v>2</v>
       </c>
       <c r="W49">
@@ -4787,7 +4695,7 @@
       <c r="X49">
         <v>2</v>
       </c>
-      <c r="Y49" s="4">
+      <c r="Y49">
         <v>1</v>
       </c>
       <c r="Z49" t="s">
@@ -4858,16 +4766,16 @@
       <c r="U50" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="4">
+      <c r="V50">
         <v>2</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50">
-        <v>4</v>
-      </c>
-      <c r="Y50" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y50">
         <v>1</v>
       </c>
       <c r="Z50" t="s">
@@ -4938,16 +4846,16 @@
       <c r="U51" t="s">
         <v>32</v>
       </c>
-      <c r="V51" s="4">
+      <c r="V51">
         <v>4</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51">
-        <v>3</v>
-      </c>
-      <c r="Y51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y51">
         <v>0</v>
       </c>
       <c r="Z51" t="s">
@@ -5018,16 +4926,16 @@
       <c r="U52" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="4">
+      <c r="V52">
         <v>2</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52">
-        <v>2</v>
-      </c>
-      <c r="Y52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y52">
         <v>1</v>
       </c>
       <c r="Z52" t="s">
@@ -5098,16 +5006,16 @@
       <c r="U53" t="s">
         <v>32</v>
       </c>
-      <c r="V53" s="4">
+      <c r="V53">
         <v>4</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>3</v>
-      </c>
-      <c r="Y53" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y53">
         <v>0</v>
       </c>
       <c r="Z53" t="s">
@@ -5178,16 +5086,16 @@
       <c r="U54" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="4">
+      <c r="V54">
         <v>2</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54">
-        <v>4</v>
-      </c>
-      <c r="Y54" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y54">
         <v>1</v>
       </c>
       <c r="Z54" t="s">
@@ -5258,7 +5166,7 @@
       <c r="U55" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="4">
+      <c r="V55">
         <v>2</v>
       </c>
       <c r="W55">
@@ -5267,7 +5175,7 @@
       <c r="X55">
         <v>2</v>
       </c>
-      <c r="Y55" s="4">
+      <c r="Y55">
         <v>1</v>
       </c>
       <c r="Z55" t="s">
@@ -5338,16 +5246,16 @@
       <c r="U56" t="s">
         <v>32</v>
       </c>
-      <c r="V56" s="4">
+      <c r="V56">
         <v>4</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56">
-        <v>3</v>
-      </c>
-      <c r="Y56" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y56">
         <v>0</v>
       </c>
       <c r="Z56" t="s">
@@ -5418,16 +5326,16 @@
       <c r="U57" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="4">
+      <c r="V57">
         <v>2</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
       <c r="X57">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y57">
         <v>1</v>
       </c>
       <c r="Z57" t="s">
@@ -5498,16 +5406,16 @@
       <c r="U58" t="s">
         <v>32</v>
       </c>
-      <c r="V58" s="4">
+      <c r="V58">
         <v>4</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58">
-        <v>3</v>
-      </c>
-      <c r="Y58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y58">
         <v>0</v>
       </c>
       <c r="Z58" t="s">
@@ -5578,16 +5486,16 @@
       <c r="U59" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="4">
+      <c r="V59">
         <v>2</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59">
-        <v>2</v>
-      </c>
-      <c r="Y59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y59">
         <v>1</v>
       </c>
       <c r="Z59" t="s">
@@ -5658,16 +5566,16 @@
       <c r="U60" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="4">
+      <c r="V60">
         <v>2</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60">
-        <v>4</v>
-      </c>
-      <c r="Y60" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y60">
         <v>1</v>
       </c>
       <c r="Z60" t="s">
@@ -5738,16 +5646,16 @@
       <c r="U61" t="s">
         <v>32</v>
       </c>
-      <c r="V61" s="4">
+      <c r="V61">
         <v>4</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61">
-        <v>3</v>
-      </c>
-      <c r="Y61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y61">
         <v>0</v>
       </c>
       <c r="Z61" t="s">
@@ -5818,16 +5726,16 @@
       <c r="U62" t="s">
         <v>32</v>
       </c>
-      <c r="V62" s="4">
+      <c r="V62">
         <v>4</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62">
-        <v>3</v>
-      </c>
-      <c r="Y62" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y62">
         <v>0</v>
       </c>
       <c r="Z62" t="s">
@@ -5898,16 +5806,16 @@
       <c r="U63" t="s">
         <v>32</v>
       </c>
-      <c r="V63" s="4">
+      <c r="V63">
         <v>4</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
       <c r="X63">
-        <v>3</v>
-      </c>
-      <c r="Y63" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y63">
         <v>0</v>
       </c>
       <c r="Z63" t="s">
@@ -5978,16 +5886,16 @@
       <c r="U64" t="s">
         <v>32</v>
       </c>
-      <c r="V64" s="4">
+      <c r="V64">
         <v>4</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64">
-        <v>3</v>
-      </c>
-      <c r="Y64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y64">
         <v>0</v>
       </c>
       <c r="Z64" t="s">
@@ -6058,16 +5966,16 @@
       <c r="U65" t="s">
         <v>32</v>
       </c>
-      <c r="V65" s="6">
+      <c r="V65">
         <v>1</v>
       </c>
-      <c r="W65" s="7">
+      <c r="W65">
         <v>-1</v>
       </c>
-      <c r="X65" s="7">
-        <v>3</v>
-      </c>
-      <c r="Y65" s="6">
+      <c r="X65">
+        <v>1</v>
+      </c>
+      <c r="Y65">
         <v>2</v>
       </c>
       <c r="Z65" t="s">
@@ -6138,7 +6046,7 @@
       <c r="U66" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="4">
+      <c r="V66">
         <v>0</v>
       </c>
       <c r="W66">
@@ -6147,7 +6055,7 @@
       <c r="X66">
         <v>0</v>
       </c>
-      <c r="Y66" s="4">
+      <c r="Y66">
         <v>0</v>
       </c>
       <c r="Z66" t="s">
@@ -6218,16 +6126,16 @@
       <c r="U67" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="4">
+      <c r="V67">
         <v>0</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
       <c r="X67">
-        <v>2</v>
-      </c>
-      <c r="Y67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y67">
         <v>0</v>
       </c>
       <c r="Z67" t="s">
@@ -6298,16 +6206,16 @@
       <c r="U68" t="s">
         <v>32</v>
       </c>
-      <c r="V68" s="4">
+      <c r="V68">
         <v>4</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68">
-        <v>2</v>
-      </c>
-      <c r="Y68" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y68">
         <v>0</v>
       </c>
       <c r="Z68" t="s">
@@ -6378,16 +6286,16 @@
       <c r="U69" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="4">
+      <c r="V69">
         <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>1</v>
-      </c>
-      <c r="Y69" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y69">
         <v>1</v>
       </c>
       <c r="Z69" t="s">
@@ -6458,16 +6366,16 @@
       <c r="U70" t="s">
         <v>32</v>
       </c>
-      <c r="V70" s="4">
+      <c r="V70">
         <v>4</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70">
-        <v>3</v>
-      </c>
-      <c r="Y70" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y70">
         <v>0</v>
       </c>
       <c r="Z70" t="s">
@@ -6538,16 +6446,16 @@
       <c r="U71" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="6">
+      <c r="V71">
         <v>1</v>
       </c>
-      <c r="W71" s="7">
+      <c r="W71">
         <v>-1</v>
       </c>
-      <c r="X71" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y71" s="6">
+      <c r="X71">
+        <v>3</v>
+      </c>
+      <c r="Y71">
         <v>2</v>
       </c>
       <c r="Z71" t="s">
@@ -6618,16 +6526,16 @@
       <c r="U72" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="5">
-        <v>0</v>
-      </c>
-      <c r="W72" s="2">
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
         <v>2</v>
       </c>
-      <c r="X72" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="5">
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
         <v>4</v>
       </c>
       <c r="Z72" t="s">
@@ -6698,16 +6606,16 @@
       <c r="U73" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="5">
-        <v>0</v>
-      </c>
-      <c r="W73" s="2">
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
         <v>2</v>
       </c>
-      <c r="X73" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="5">
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
         <v>4</v>
       </c>
       <c r="Z73" t="s">
@@ -6715,7 +6623,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>